--- a/docs/StructureDefinition-VAEligibilityObservation2.xlsx
+++ b/docs/StructureDefinition-VAEligibilityObservation2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="484">
   <si>
     <t>Path</t>
   </si>
@@ -335,247 +335,244 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -982,6 +979,9 @@
   </si>
   <si>
     <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://va.gov/Terminology/VistaDefinedTerms/2-.14</t>
   </si>
   <si>
     <t>Observation.value[x].coding.version</t>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2716,15 +2716,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2761,14 +2763,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2798,7 +2802,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2813,7 +2817,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2832,16 +2836,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2891,7 +2895,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -2929,7 +2933,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2952,17 +2956,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3011,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3029,19 +3033,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3049,11 +3053,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3072,17 +3076,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3131,7 +3135,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3149,16 +3153,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3169,7 +3173,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3195,48 +3199,48 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>46</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>46</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>57</v>
@@ -3271,19 +3275,19 @@
         <v>46</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3291,7 +3295,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3314,19 +3318,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3351,14 +3355,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3402,10 +3406,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3413,11 +3417,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3436,17 +3440,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3471,14 +3475,14 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>46</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>57</v>
@@ -3513,27 +3517,27 @@
         <v>46</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3556,13 +3560,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3613,7 +3617,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3640,7 +3644,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3651,11 +3655,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3674,16 +3678,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3721,19 +3725,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3760,7 +3764,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3771,7 +3775,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3794,19 +3798,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3855,7 +3859,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3879,10 +3883,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -3893,7 +3897,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3916,13 +3920,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3973,7 +3977,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4000,7 +4004,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4011,11 +4015,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4034,16 +4038,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4081,19 +4085,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4120,7 +4124,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4131,7 +4135,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4157,65 +4161,65 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4239,10 +4243,10 @@
         <v>46</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4253,7 +4257,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4276,16 +4280,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4335,7 +4339,7 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4359,10 +4363,10 @@
         <v>46</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4373,7 +4377,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4399,63 +4403,63 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4479,10 +4483,10 @@
         <v>46</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4493,7 +4497,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4516,66 +4520,66 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4599,10 +4603,10 @@
         <v>46</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4613,7 +4617,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4636,19 +4640,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4697,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4721,10 +4725,10 @@
         <v>46</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4735,7 +4739,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4758,19 +4762,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4819,7 +4823,7 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -4843,10 +4847,10 @@
         <v>46</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -4857,7 +4861,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4880,19 +4884,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -4941,7 +4945,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -4959,19 +4963,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -4979,11 +4983,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5002,19 +5006,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5063,7 +5067,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5081,19 +5085,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5101,11 +5105,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5124,19 +5128,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5185,7 +5189,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5203,19 +5207,19 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5223,7 +5227,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5246,16 +5250,16 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5305,7 +5309,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5329,13 +5333,13 @@
         <v>46</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5343,7 +5347,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5366,17 +5370,17 @@
         <v>58</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>46</v>
@@ -5425,7 +5429,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5443,19 +5447,19 @@
         <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5463,7 +5467,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5486,19 +5490,19 @@
         <v>58</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>46</v>
@@ -5535,17 +5539,17 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5554,39 +5558,39 @@
         <v>57</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>46</v>
@@ -5608,19 +5612,19 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5669,7 +5673,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5678,36 +5682,36 @@
         <v>57</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5730,13 +5734,13 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5787,7 +5791,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5814,7 +5818,7 @@
         <v>46</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5825,11 +5829,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5848,16 +5852,16 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5895,19 +5899,19 @@
         <v>46</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5934,7 +5938,7 @@
         <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>46</v>
@@ -5945,7 +5949,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5968,19 +5972,19 @@
         <v>58</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
@@ -6029,7 +6033,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6053,10 +6057,10 @@
         <v>46</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>46</v>
@@ -6067,7 +6071,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6090,13 +6094,13 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6147,7 +6151,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6174,7 +6178,7 @@
         <v>46</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>46</v>
@@ -6185,11 +6189,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6208,16 +6212,16 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6255,19 +6259,19 @@
         <v>46</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB38" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6294,7 +6298,7 @@
         <v>46</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6303,9 +6307,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6319,7 +6323,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>46</v>
@@ -6331,23 +6335,23 @@
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>46</v>
@@ -6389,7 +6393,7 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6413,10 +6417,10 @@
         <v>46</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6450,16 +6454,16 @@
         <v>58</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6509,7 +6513,7 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6533,10 +6537,10 @@
         <v>46</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6554,7 +6558,7 @@
         <v>46</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s" s="2">
         <v>44</v>
@@ -6582,7 +6586,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6631,7 +6635,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6655,10 +6659,10 @@
         <v>46</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6692,17 +6696,17 @@
         <v>58</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -6751,7 +6755,7 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6775,10 +6779,10 @@
         <v>46</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6812,19 +6816,19 @@
         <v>58</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>46</v>
@@ -6873,7 +6877,7 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6897,10 +6901,10 @@
         <v>46</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
@@ -6934,19 +6938,19 @@
         <v>58</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>46</v>
@@ -6995,7 +6999,7 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -7019,10 +7023,10 @@
         <v>46</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -7056,7 +7060,7 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>319</v>
@@ -7135,7 +7139,7 @@
         <v>46</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>46</v>
@@ -7178,7 +7182,7 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>329</v>
@@ -7298,7 +7302,7 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>339</v>
@@ -7418,7 +7422,7 @@
         <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>346</v>
@@ -7453,7 +7457,7 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>349</v>
@@ -7538,7 +7542,7 @@
         <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>356</v>
@@ -7575,7 +7579,7 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>360</v>
@@ -8022,13 +8026,13 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8079,7 +8083,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8106,7 +8110,7 @@
         <v>46</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8121,7 +8125,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8140,16 +8144,16 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8199,7 +8203,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8226,7 +8230,7 @@
         <v>46</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
@@ -8260,16 +8264,16 @@
         <v>58</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8616,7 +8620,7 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>409</v>
@@ -8738,7 +8742,7 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>418</v>
@@ -8775,7 +8779,7 @@
         <v>46</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>422</v>
@@ -8980,7 +8984,7 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>431</v>
@@ -9220,13 +9224,13 @@
         <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9277,7 +9281,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9304,7 +9308,7 @@
         <v>46</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9319,7 +9323,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9338,16 +9342,16 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9397,7 +9401,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9424,7 +9428,7 @@
         <v>46</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>46</v>
@@ -9458,16 +9462,16 @@
         <v>58</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9615,7 +9619,7 @@
         <v>46</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>450</v>
@@ -9940,13 +9944,13 @@
         <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9997,7 +10001,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10024,7 +10028,7 @@
         <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10039,7 +10043,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10058,16 +10062,16 @@
         <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10117,7 +10121,7 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10144,7 +10148,7 @@
         <v>46</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
@@ -10178,16 +10182,16 @@
         <v>58</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10298,7 +10302,7 @@
         <v>58</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>469</v>
@@ -10308,7 +10312,7 @@
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>46</v>
@@ -10333,13 +10337,13 @@
         <v>46</v>
       </c>
       <c r="W72" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>46</v>
@@ -10381,13 +10385,13 @@
         <v>471</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>46</v>
@@ -10424,13 +10428,13 @@
         <v>474</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>475</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>46</v>
@@ -10503,16 +10507,16 @@
         <v>476</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -10540,7 +10544,7 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>478</v>
@@ -10662,7 +10666,7 @@
         <v>46</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>329</v>
